--- a/report/Report-Inspection-Sarana Bantu Pemanduan 1.xlsx
+++ b/report/Report-Inspection-Sarana Bantu Pemanduan 1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="297">
   <si>
     <t>CHECK LIST VERIFIKASI DOKUMEN SARANA BANTU DAN PRASARANA PEMANDUAN</t>
   </si>
@@ -1089,6 +1089,9 @@
   </si>
   <si>
     <t>: ${tanggal_pemeriksaan}</t>
+  </si>
+  <si>
+    <t>: ${pelaksana} Cabang ${cabang}</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1824,7 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1861,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">

--- a/report/Report-Inspection-Sarana Bantu Pemanduan 1.xlsx
+++ b/report/Report-Inspection-Sarana Bantu Pemanduan 1.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Kapal Tunda" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sarana Bantu Pemanduan'!$A$1:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sarana Bantu Pemanduan'!$A$1:$I$33</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="295">
   <si>
     <t>CHECK LIST VERIFIKASI DOKUMEN SARANA BANTU DAN PRASARANA PEMANDUAN</t>
   </si>
@@ -75,31 +75,7 @@
     <t>TIDAK ADA</t>
   </si>
   <si>
-    <t>RUDY HW</t>
-  </si>
-  <si>
-    <t>NAKHODA</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>KT.BUNGA RAFLESIA</t>
-  </si>
-  <si>
-    <t>MOH.HASAN</t>
-  </si>
-  <si>
-    <t>TB.BEITRANS 2</t>
-  </si>
-  <si>
-    <t>HERRY GUNAWAN</t>
-  </si>
-  <si>
-    <t>KKM</t>
-  </si>
-  <si>
-    <t>M.UMAR YUSUP</t>
   </si>
   <si>
     <t>Catatan : Nakhoda Minimal berijazah ANT III dan KKM minimal berijazah ATT III</t>
@@ -1093,12 +1069,30 @@
   <si>
     <t>: ${pelaksana} Cabang ${cabang}</t>
   </si>
+  <si>
+    <t>${nama}</t>
+  </si>
+  <si>
+    <t>${jabatan}</t>
+  </si>
+  <si>
+    <t>${v00}</t>
+  </si>
+  <si>
+    <t>${tv00}</t>
+  </si>
+  <si>
+    <t>${ta00}</t>
+  </si>
+  <si>
+    <t>${keterangan}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1113,14 +1107,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Webdings"/>
-      <family val="1"/>
-      <charset val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1388,7 +1374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1399,12 +1385,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1415,8 +1395,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1425,14 +1405,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1463,25 +1443,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1490,46 +1470,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1541,6 +1485,49 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1821,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1840,15 +1827,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
       <c r="H1" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1856,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1864,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1872,19 +1859,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
@@ -1906,29 +1893,29 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55" t="s">
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="55"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1938,596 +1925,552 @@
       <c r="F13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>291</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="74" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="H14" s="54"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="56"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+    </row>
+    <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
         <v>2</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="56"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
         <v>3</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="56"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
-        <v>4</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="56"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-    </row>
-    <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="4" t="s">
-        <v>12</v>
+      <c r="B22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E23" s="12" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="14">
+        <v>5</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
-        <v>4</v>
+      <c r="A26" s="14">
+        <v>7</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="16">
-        <v>5</v>
-      </c>
-      <c r="B27" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E26" s="12" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>8</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
-        <v>6</v>
+      <c r="A28" s="14">
+        <v>9</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="16">
-        <v>7</v>
+      <c r="A29" s="5">
+        <v>10</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
-        <v>8</v>
-      </c>
-      <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C29" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D29" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="16">
-        <v>9</v>
-      </c>
-      <c r="B31" s="5" t="s">
+    <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="14">
+        <v>11</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C30" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D30" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E30" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
-        <v>10</v>
-      </c>
-      <c r="B32" s="5" t="s">
+    <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>12</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C31" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D31" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E31" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="16">
-        <v>11</v>
-      </c>
-      <c r="B33" s="17" t="s">
+    <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="14">
+        <v>13</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C32" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D32" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E32" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
-        <v>12</v>
-      </c>
-      <c r="B34" s="17" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="18" t="s">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="16">
-        <v>13</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
+        <v>7</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>10</v>
+      </c>
       <c r="E43" s="53"/>
       <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
+      <c r="G43" s="53" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+      <c r="A44" s="53"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="53"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="18"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="55"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="55"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="19" t="s">
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="22"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="22"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="22"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="22"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="23"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="25"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="B58" s="52"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="23"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="24"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="24"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="24"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="24"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="27"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B61" s="53"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" s="54"/>
+      <c r="B63" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="19">
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A12:A13"/>
@@ -2535,21 +2478,6 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:G47"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="80" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2573,27 +2501,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
+      <c r="A1" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -2601,7 +2529,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -2609,437 +2537,437 @@
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="28" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="71" t="s">
+      <c r="C11" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="30" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="31"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B12" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="31" t="s">
+      <c r="C12" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="30" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B13" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="31" t="s">
+      <c r="C13" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="30" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="31"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="31" t="s">
+      <c r="C14" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="30" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="31"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="31" t="s">
+      <c r="C15" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="30" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="31"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="31"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="31"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B22" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="34" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="23"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="25"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="27"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="53"/>
+      <c r="H28" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+    </row>
+    <row r="30" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="36">
+        <v>1</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="G30" s="61"/>
+      <c r="H30" s="61" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="55" t="s">
+      <c r="I30" s="61"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+    </row>
+    <row r="31" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="36">
+        <v>2</v>
+      </c>
+      <c r="C31" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55" t="s">
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="73" t="s">
+      <c r="G31" s="61"/>
+      <c r="H31" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55" t="s">
+      <c r="I31" s="61"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+    </row>
+    <row r="32" spans="1:12" ht="71" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="36">
+        <v>3</v>
+      </c>
+      <c r="C32" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="73" t="s">
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-    </row>
-    <row r="30" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="38">
-        <v>1</v>
-      </c>
-      <c r="C30" s="62" t="s">
+      <c r="G32" s="64"/>
+      <c r="H32" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="I30" s="68"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-    </row>
-    <row r="31" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="38">
-        <v>2</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31" s="68"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-    </row>
-    <row r="32" spans="1:12" ht="71" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="38">
-        <v>3</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B33" s="8"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3047,18 +2975,18 @@
         <v>7</v>
       </c>
       <c r="C36" s="65" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D36" s="65"/>
       <c r="E36" s="65"/>
       <c r="F36" s="66" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G36" s="66"/>
       <c r="H36" s="66"/>
       <c r="I36" s="66"/>
       <c r="J36" s="67" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="K36" s="67"/>
       <c r="L36" s="67"/>
@@ -3069,11 +2997,11 @@
       <c r="D37" s="65"/>
       <c r="E37" s="65"/>
       <c r="F37" s="66" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G37" s="66"/>
       <c r="H37" s="66" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I37" s="66"/>
       <c r="J37" s="67"/>
@@ -3085,1156 +3013,1156 @@
       <c r="C38" s="65"/>
       <c r="D38" s="65"/>
       <c r="E38" s="65"/>
-      <c r="F38" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="G38" s="41" t="s">
+      <c r="F38" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="I38" s="41" t="s">
-        <v>151</v>
+      <c r="H38" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="I38" s="39" t="s">
+        <v>143</v>
       </c>
       <c r="J38" s="67"/>
       <c r="K38" s="67"/>
       <c r="L38" s="67"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B39" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="33"/>
+      <c r="B39" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="31"/>
     </row>
     <row r="40" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="30">
+      <c r="B40" s="28">
         <v>1</v>
       </c>
-      <c r="C40" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="44" t="str">
+      <c r="C40" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="42" t="str">
         <f>IF(OR(H40&lt;&gt;"",I40&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G40" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="H40" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="I40" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="J40" s="46"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="33"/>
+      <c r="G40" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="I40" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="J40" s="44"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="31"/>
     </row>
     <row r="41" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="30">
+      <c r="B41" s="28">
         <v>2</v>
       </c>
-      <c r="C41" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="44" t="str">
+      <c r="C41" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="42" t="str">
         <f>IF(OR(H41&lt;&gt;"",I41&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G41" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="H41" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="I41" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="J41" s="46"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="33"/>
+      <c r="G41" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="I41" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="J41" s="44"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="31"/>
     </row>
     <row r="42" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="30">
+      <c r="B42" s="28">
         <v>3</v>
       </c>
-      <c r="C42" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="44" t="str">
+      <c r="C42" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="42" t="str">
         <f>IF(OR(H42&lt;&gt;"",I42&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G42" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="H42" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="I42" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="J42" s="46"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="33"/>
+      <c r="G42" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="I42" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="J42" s="44"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="31"/>
     </row>
     <row r="43" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="30">
+      <c r="B43" s="28">
         <v>4</v>
       </c>
-      <c r="C43" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="44" t="str">
+      <c r="C43" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="42" t="str">
         <f>IF(OR(H43&lt;&gt;"",I43&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G43" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="H43" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="I43" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="J43" s="46"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="33"/>
+      <c r="G43" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="I43" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="J43" s="44"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="31"/>
     </row>
     <row r="44" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="30">
+      <c r="B44" s="28">
         <v>5</v>
       </c>
-      <c r="C44" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="44" t="str">
+      <c r="C44" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="30"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="42" t="str">
         <f>IF(OR(H44&lt;&gt;"",I44&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G44" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="H44" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="I44" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="J44" s="46"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="33"/>
+      <c r="G44" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="I44" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="J44" s="44"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="31"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B45" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="33"/>
+      <c r="B45" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="31"/>
     </row>
     <row r="46" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="30">
+      <c r="B46" s="28">
         <v>1</v>
       </c>
-      <c r="C46" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="44" t="str">
+      <c r="C46" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="42" t="str">
         <f t="shared" ref="F46:F53" si="0">IF(OR(H46&lt;&gt;"",I46&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G46" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="H46" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="I46" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="J46" s="46"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="33"/>
+      <c r="G46" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="I46" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="J46" s="44"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="31"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B47" s="30">
+      <c r="B47" s="28">
         <v>2</v>
       </c>
-      <c r="C47" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="44" t="str">
+      <c r="C47" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="42" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G47" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="H47" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="I47" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="J47" s="46"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="33"/>
+      <c r="G47" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="H47" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="I47" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="J47" s="44"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="31"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B48" s="30">
+      <c r="B48" s="28">
         <v>3</v>
       </c>
-      <c r="C48" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="44" t="str">
+      <c r="C48" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="42" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G48" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="H48" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="I48" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="J48" s="46"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="33"/>
+      <c r="G48" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="H48" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="I48" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="J48" s="44"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="31"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B49" s="30">
+      <c r="B49" s="28">
         <v>4</v>
       </c>
-      <c r="C49" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="44" t="str">
+      <c r="C49" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="30"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="42" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G49" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="H49" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="I49" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="J49" s="46"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="33"/>
+      <c r="G49" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="H49" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="I49" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="J49" s="44"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="31"/>
     </row>
     <row r="50" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="30">
+      <c r="B50" s="28">
         <v>5</v>
       </c>
-      <c r="C50" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="44" t="str">
+      <c r="C50" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" s="30"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="42" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G50" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="H50" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="I50" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="J50" s="46"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="33"/>
+      <c r="G50" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="H50" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="I50" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="J50" s="44"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="31"/>
     </row>
     <row r="51" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="30">
+      <c r="B51" s="28">
         <v>6</v>
       </c>
-      <c r="C51" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="44" t="str">
+      <c r="C51" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="30"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="42" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G51" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="H51" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="I51" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="J51" s="46"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="33"/>
+      <c r="G51" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="H51" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="I51" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="J51" s="44"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="31"/>
     </row>
     <row r="52" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B52" s="30">
+      <c r="B52" s="28">
         <v>7</v>
       </c>
-      <c r="C52" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="44" t="str">
+      <c r="C52" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" s="30"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="42" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G52" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="H52" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="I52" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="J52" s="46"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="33"/>
+      <c r="G52" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H52" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="I52" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="J52" s="44"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="31"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B53" s="30">
+      <c r="B53" s="28">
         <v>8</v>
       </c>
-      <c r="C53" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="44" t="str">
+      <c r="C53" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" s="30"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="42" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G53" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="H53" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="I53" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="J53" s="31"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="33"/>
+      <c r="G53" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="H53" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="I53" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="J53" s="29"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="31"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B54" s="30"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="33"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="31"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B55" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="33"/>
+      <c r="B55" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="31"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B56" s="30">
+      <c r="B56" s="28">
         <v>1</v>
       </c>
-      <c r="C56" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="D56" s="32"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="44" t="str">
+      <c r="C56" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" s="30"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="42" t="str">
         <f t="shared" ref="F56:F61" si="1">IF(OR(H56&lt;&gt;"",I56&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G56" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="H56" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="I56" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="J56" s="46"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="33"/>
+      <c r="G56" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="H56" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="I56" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="J56" s="44"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="31"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B57" s="30">
+      <c r="B57" s="28">
         <v>2</v>
       </c>
-      <c r="C57" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="44" t="str">
+      <c r="C57" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="30"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="42" t="str">
         <f t="shared" si="1"/>
         <v></v>
       </c>
-      <c r="G57" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="H57" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="I57" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="J57" s="46"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="33"/>
+      <c r="G57" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="H57" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="I57" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="J57" s="44"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="31"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B58" s="30">
+      <c r="B58" s="28">
         <v>3</v>
       </c>
-      <c r="C58" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="44" t="str">
+      <c r="C58" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="30"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="42" t="str">
         <f t="shared" si="1"/>
         <v></v>
       </c>
-      <c r="G58" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="H58" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="I58" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="J58" s="46"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="33"/>
+      <c r="G58" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="H58" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="I58" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="J58" s="44"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="31"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B59" s="30">
+      <c r="B59" s="28">
         <v>4</v>
       </c>
-      <c r="C59" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="D59" s="32"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="44" t="str">
+      <c r="C59" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" s="30"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="42" t="str">
         <f t="shared" si="1"/>
         <v></v>
       </c>
-      <c r="G59" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="H59" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="I59" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="J59" s="46"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="33"/>
+      <c r="G59" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="H59" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="I59" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="J59" s="44"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="31"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B60" s="30">
+      <c r="B60" s="28">
         <v>5</v>
       </c>
-      <c r="C60" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="D60" s="32"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="44" t="str">
+      <c r="C60" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="D60" s="30"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="42" t="str">
         <f t="shared" si="1"/>
         <v></v>
       </c>
-      <c r="G60" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="H60" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="I60" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="J60" s="46"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="33"/>
+      <c r="G60" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="H60" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="I60" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="J60" s="44"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="31"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B61" s="30">
+      <c r="B61" s="28">
         <v>6</v>
       </c>
-      <c r="C61" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="D61" s="32"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="44" t="str">
+      <c r="C61" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="D61" s="30"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="42" t="str">
         <f t="shared" si="1"/>
         <v></v>
       </c>
-      <c r="G61" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="H61" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="I61" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="J61" s="46"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="33"/>
+      <c r="G61" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="H61" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="I61" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="J61" s="44"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="31"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B62" s="30"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="33"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="31"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B63" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="33"/>
+      <c r="B63" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="31"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B64" s="30">
+      <c r="B64" s="28">
         <v>1</v>
       </c>
-      <c r="C64" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="44" t="str">
+      <c r="C64" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" s="30"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="42" t="str">
         <f t="shared" ref="F64:F71" si="2">IF(OR(H64&lt;&gt;"",I64&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G64" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="H64" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="I64" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="J64" s="46"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="33"/>
+      <c r="G64" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="H64" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="I64" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="J64" s="44"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="31"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B65" s="30">
+      <c r="B65" s="28">
         <v>2</v>
       </c>
-      <c r="C65" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="44" t="str">
+      <c r="C65" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" s="30"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="42" t="str">
         <f t="shared" si="2"/>
         <v></v>
       </c>
-      <c r="G65" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="H65" s="47" t="s">
-        <v>242</v>
-      </c>
-      <c r="I65" s="47" t="s">
-        <v>243</v>
-      </c>
-      <c r="J65" s="46"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="33"/>
+      <c r="G65" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="H65" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="I65" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="J65" s="44"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="31"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B66" s="30">
+      <c r="B66" s="28">
         <v>3</v>
       </c>
-      <c r="C66" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="D66" s="32"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="44" t="str">
+      <c r="C66" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="D66" s="30"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="42" t="str">
         <f t="shared" si="2"/>
         <v></v>
       </c>
-      <c r="G66" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="H66" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="I66" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="J66" s="46"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="33"/>
+      <c r="G66" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="H66" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="I66" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="J66" s="44"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="31"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B67" s="30">
+      <c r="B67" s="28">
         <v>4</v>
       </c>
-      <c r="C67" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="D67" s="32"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="44" t="str">
+      <c r="C67" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="D67" s="30"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="42" t="str">
         <f t="shared" si="2"/>
         <v></v>
       </c>
-      <c r="G67" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="H67" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="I67" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="J67" s="46"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="33"/>
+      <c r="G67" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="H67" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="I67" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="J67" s="44"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="31"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B68" s="30">
+      <c r="B68" s="28">
         <v>5</v>
       </c>
-      <c r="C68" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="D68" s="32"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="44" t="str">
+      <c r="C68" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D68" s="30"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="42" t="str">
         <f t="shared" si="2"/>
         <v></v>
       </c>
-      <c r="G68" s="47" t="s">
-        <v>253</v>
-      </c>
-      <c r="H68" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="I68" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="J68" s="46"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="33"/>
+      <c r="G68" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="H68" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="I68" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="J68" s="44"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="31"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B69" s="30">
+      <c r="B69" s="28">
         <v>6</v>
       </c>
-      <c r="C69" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="D69" s="32"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="44" t="str">
+      <c r="C69" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="D69" s="30"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="42" t="str">
         <f t="shared" si="2"/>
         <v></v>
       </c>
-      <c r="G69" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="H69" s="47" t="s">
-        <v>258</v>
-      </c>
-      <c r="I69" s="47" t="s">
-        <v>259</v>
-      </c>
-      <c r="J69" s="46"/>
-      <c r="K69" s="32"/>
-      <c r="L69" s="33"/>
+      <c r="G69" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="H69" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="I69" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="J69" s="44"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="31"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B70" s="30">
+      <c r="B70" s="28">
         <v>7</v>
       </c>
-      <c r="C70" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="D70" s="32"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="44" t="str">
+      <c r="C70" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="D70" s="30"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="42" t="str">
         <f t="shared" si="2"/>
         <v></v>
       </c>
-      <c r="G70" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="H70" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="I70" s="47" t="s">
-        <v>263</v>
-      </c>
-      <c r="J70" s="46"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="33"/>
+      <c r="G70" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="H70" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="I70" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="J70" s="44"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="31"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B71" s="30">
+      <c r="B71" s="28">
         <v>8</v>
       </c>
-      <c r="C71" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="D71" s="32"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="44" t="str">
+      <c r="C71" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="D71" s="30"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="42" t="str">
         <f t="shared" si="2"/>
         <v></v>
       </c>
-      <c r="G71" s="50" t="s">
-        <v>265</v>
-      </c>
-      <c r="H71" s="50" t="s">
-        <v>266</v>
-      </c>
-      <c r="I71" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="J71" s="46"/>
-      <c r="K71" s="32"/>
-      <c r="L71" s="33"/>
+      <c r="G71" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H71" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I71" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="J71" s="44"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="31"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B72" s="30"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="32"/>
-      <c r="L72" s="33"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="31"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B73" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="C73" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="33"/>
+      <c r="B73" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C73" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="31"/>
     </row>
     <row r="74" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="35">
+      <c r="B74" s="33">
         <v>1</v>
       </c>
-      <c r="C74" s="60" t="s">
-        <v>270</v>
-      </c>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="58" t="str">
+      <c r="C74" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="D74" s="68"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="69" t="str">
         <f>IF(OR(H74&lt;&gt;"",I74&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G74" s="61" t="s">
-        <v>271</v>
-      </c>
-      <c r="H74" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="I74" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="J74" s="51"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="23"/>
+      <c r="G74" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="H74" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="I74" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="J74" s="49"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="21"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B75" s="52"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="61" t="s">
-        <v>271</v>
-      </c>
-      <c r="H75" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="I75" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="J75" s="25"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="27"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="H75" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="I75" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="J75" s="23"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="25"/>
     </row>
     <row r="76" spans="2:12" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="35">
+      <c r="B76" s="33">
         <v>2</v>
       </c>
-      <c r="C76" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="58" t="str">
+      <c r="C76" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="D76" s="68"/>
+      <c r="E76" s="68"/>
+      <c r="F76" s="69" t="str">
         <f>IF(OR(H76&lt;&gt;"",I76&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G76" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="H76" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="I76" s="61" t="s">
-        <v>277</v>
-      </c>
-      <c r="J76" s="51"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="23"/>
+      <c r="G76" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="H76" s="70" t="s">
+        <v>268</v>
+      </c>
+      <c r="I76" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="J76" s="49"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="21"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B77" s="52"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="27"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="70"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="70"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="25"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B78" s="30"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="30"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="32"/>
-      <c r="L78" s="33"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="31"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B79" s="31"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="33"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="31"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B80" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="C80" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="32"/>
-      <c r="L80" s="33"/>
+      <c r="B80" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C80" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="31"/>
     </row>
     <row r="81" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="35">
+      <c r="B81" s="33">
         <v>1</v>
       </c>
-      <c r="C81" s="57" t="s">
-        <v>280</v>
-      </c>
-      <c r="D81" s="57"/>
-      <c r="E81" s="57"/>
-      <c r="F81" s="58" t="str">
+      <c r="C81" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="D81" s="72"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="69" t="str">
         <f>IF(OR(H81&lt;&gt;"",I81&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G81" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="H81" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="I81" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="J81" s="51"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="23"/>
+      <c r="G81" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="H81" s="71" t="s">
+        <v>274</v>
+      </c>
+      <c r="I81" s="71" t="s">
+        <v>275</v>
+      </c>
+      <c r="J81" s="49"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="21"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B82" s="52"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="59"/>
-      <c r="I82" s="59"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="26"/>
-      <c r="L82" s="27"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="72"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="71"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="25"/>
     </row>
     <row r="83" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B83" s="30">
+      <c r="B83" s="28">
         <v>2</v>
       </c>
-      <c r="C83" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="D83" s="32"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="44" t="str">
+      <c r="C83" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="D83" s="30"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="42" t="str">
         <f>IF(OR(H83&lt;&gt;"",I83&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G83" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="H83" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="I83" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="J83" s="31"/>
-      <c r="K83" s="32"/>
-      <c r="L83" s="33"/>
+      <c r="G83" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="H83" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="I83" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="J83" s="29"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="31"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B84" s="30">
+      <c r="B84" s="28">
         <v>3</v>
       </c>
-      <c r="C84" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="D84" s="32"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="44" t="str">
+      <c r="C84" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="D84" s="30"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="42" t="str">
         <f>IF(OR(H84&lt;&gt;"",I84&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G84" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="H84" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="I84" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="J84" s="31"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="33"/>
+      <c r="G84" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="H84" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="I84" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="J84" s="29"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="31"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="L85" s="27"/>
+      <c r="L85" s="25"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B86" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="23"/>
+      <c r="B86" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="21"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B87" s="24"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="9"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="7"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B88" s="24"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="9"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="7"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B89" s="24"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="9"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="7"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B90" s="24"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="9"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="7"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B91" s="25"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="26"/>
-      <c r="K91" s="26"/>
-      <c r="L91" s="27"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="25"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B93" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="C93" s="53"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="53"/>
+      <c r="B93" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" s="52"/>
+      <c r="D93" s="52"/>
+      <c r="E93" s="52"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B94" s="3"/>
@@ -4249,21 +4177,56 @@
       <c r="C96" s="3"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B98" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="53"/>
+      <c r="B98" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" s="52"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="C81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="C76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="C74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:E38"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:L38"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:L31"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C18:L18"/>
@@ -4274,41 +4237,6 @@
     <mergeCell ref="J27:L29"/>
     <mergeCell ref="F28:G29"/>
     <mergeCell ref="H28:I29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:E38"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:L38"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="C76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="C81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
   </mergeCells>
   <pageMargins left="0.37013888888888902" right="0.25972222222222202" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/report/Report-Inspection-Sarana Bantu Pemanduan 1.xlsx
+++ b/report/Report-Inspection-Sarana Bantu Pemanduan 1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="303">
   <si>
     <t>CHECK LIST VERIFIKASI DOKUMEN SARANA BANTU DAN PRASARANA PEMANDUAN</t>
   </si>
@@ -1087,12 +1087,36 @@
   <si>
     <t>${keterangan}</t>
   </si>
+  <si>
+    <t>${table:operator.valid}</t>
+  </si>
+  <si>
+    <t>${table:operator.tidakvalid}</t>
+  </si>
+  <si>
+    <t>${table:operator.tidakada}</t>
+  </si>
+  <si>
+    <t>${table:operator.keterangan}</t>
+  </si>
+  <si>
+    <t>${table:komunikasi.valid}</t>
+  </si>
+  <si>
+    <t>${table:komunikasi.tidakvalid}</t>
+  </si>
+  <si>
+    <t>${table:komunikasi.tidakada}</t>
+  </si>
+  <si>
+    <t>${table:komunikasi.keterangan}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1127,13 +1151,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Webdings"/>
-      <family val="1"/>
-      <charset val="2"/>
     </font>
     <font>
       <b/>
@@ -1374,7 +1391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1409,10 +1426,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1446,34 +1460,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1488,7 +1506,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1521,13 +1539,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1810,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1827,15 +1841,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1863,15 +1877,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
@@ -1893,29 +1907,29 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53" t="s">
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="53"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1925,8 +1939,8 @@
       <c r="F13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
@@ -1935,22 +1949,22 @@
       <c r="B14" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="E14" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="F14" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="53" t="s">
         <v>294</v>
       </c>
-      <c r="H14" s="54"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -1984,21 +1998,21 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
     </row>
     <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="4" t="s">
         <v>12</v>
       </c>
@@ -2257,15 +2271,15 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
@@ -2276,28 +2290,28 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="53" t="s">
+      <c r="D43" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53" t="s">
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="53"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="4" t="s">
         <v>12</v>
       </c>
@@ -2307,9 +2321,9 @@
       <c r="F44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="53"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G44" s="54"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>74</v>
       </c>
@@ -2319,10 +2333,18 @@
       <c r="C45" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="D45" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
@@ -2368,24 +2390,32 @@
       <c r="C49" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="D49" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="21"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="20"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="22"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2394,7 +2424,7 @@
       <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="22"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2403,7 +2433,7 @@
       <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="22"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -2412,7 +2442,7 @@
       <c r="G54" s="7"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="22"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2421,19 +2451,19 @@
       <c r="G55" s="7"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="23"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="25"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="24"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="52"/>
+      <c r="B58" s="55"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
@@ -2448,14 +2478,14 @@
       <c r="B61" s="3"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="55" t="s">
+      <c r="A63" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="55"/>
+      <c r="B63" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -2480,7 +2510,7 @@
     <mergeCell ref="G12:H13"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" scale="80" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="80" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="9" max="16383" man="1"/>
   </rowBreaks>
@@ -2501,20 +2531,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -2549,154 +2579,154 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="29" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="29" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="29" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="29" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="29" t="s">
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="29" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="29" t="s">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="31"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
@@ -2707,125 +2737,125 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="31"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="29" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="31"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="29" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="31"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="34" t="s">
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="23"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="24"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
@@ -2836,128 +2866,128 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53" t="s">
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="59" t="s">
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53" t="s">
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="59" t="s">
+      <c r="G28" s="54"/>
+      <c r="H28" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
     </row>
     <row r="30" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="36">
+      <c r="B30" s="35">
         <v>1</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61" t="s">
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61" t="s">
+      <c r="G30" s="62"/>
+      <c r="H30" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="I30" s="61"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
     </row>
     <row r="31" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="36">
+      <c r="B31" s="35">
         <v>2</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61" t="s">
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61" t="s">
+      <c r="G31" s="62"/>
+      <c r="H31" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="I31" s="61"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
     </row>
     <row r="32" spans="1:12" ht="71" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="36">
+      <c r="B32" s="35">
         <v>3</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="64" t="s">
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64" t="s">
+      <c r="G32" s="65"/>
+      <c r="H32" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="64"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
@@ -2971,1128 +3001,1128 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="66" t="s">
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="67" t="s">
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="66" t="s">
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66" t="s">
+      <c r="G37" s="67"/>
+      <c r="H37" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="I37" s="66"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
     </row>
     <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="39" t="s">
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="G38" s="39" t="s">
+      <c r="G38" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="39" t="s">
+      <c r="H38" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="I38" s="39" t="s">
+      <c r="I38" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="31"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="30"/>
     </row>
     <row r="40" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="28">
+      <c r="B40" s="27">
         <v>1</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="42" t="str">
+      <c r="D40" s="29"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="41" t="str">
         <f>IF(OR(H40&lt;&gt;"",I40&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G40" s="43" t="s">
+      <c r="G40" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="H40" s="43" t="s">
+      <c r="H40" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="I40" s="43" t="s">
+      <c r="I40" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="J40" s="44"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="31"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="30"/>
     </row>
     <row r="41" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="28">
+      <c r="B41" s="27">
         <v>2</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="42" t="str">
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="41" t="str">
         <f>IF(OR(H41&lt;&gt;"",I41&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G41" s="43" t="s">
+      <c r="G41" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="H41" s="43" t="s">
+      <c r="H41" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="I41" s="43" t="s">
+      <c r="I41" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="J41" s="44"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="31"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="30"/>
     </row>
     <row r="42" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="28">
+      <c r="B42" s="27">
         <v>3</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="42" t="str">
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="41" t="str">
         <f>IF(OR(H42&lt;&gt;"",I42&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G42" s="43" t="s">
+      <c r="G42" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="H42" s="43" t="s">
+      <c r="H42" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="I42" s="43" t="s">
+      <c r="I42" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="J42" s="44"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="31"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="30"/>
     </row>
     <row r="43" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="28">
+      <c r="B43" s="27">
         <v>4</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="42" t="str">
+      <c r="D43" s="29"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="41" t="str">
         <f>IF(OR(H43&lt;&gt;"",I43&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G43" s="43" t="s">
+      <c r="G43" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="I43" s="43" t="s">
+      <c r="I43" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="J43" s="44"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="31"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="30"/>
     </row>
     <row r="44" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="28">
+      <c r="B44" s="27">
         <v>5</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="42" t="str">
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="41" t="str">
         <f>IF(OR(H44&lt;&gt;"",I44&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G44" s="43" t="s">
+      <c r="G44" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="H44" s="43" t="s">
+      <c r="H44" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="I44" s="43" t="s">
+      <c r="I44" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="J44" s="44"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="31"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="30"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="31"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="30"/>
     </row>
     <row r="46" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="28">
+      <c r="B46" s="27">
         <v>1</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="42" t="str">
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="41" t="str">
         <f t="shared" ref="F46:F53" si="0">IF(OR(H46&lt;&gt;"",I46&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G46" s="45" t="s">
+      <c r="G46" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="H46" s="43" t="s">
+      <c r="H46" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="I46" s="45" t="s">
+      <c r="I46" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="J46" s="44"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="31"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="30"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B47" s="28">
+      <c r="B47" s="27">
         <v>2</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="42" t="str">
+      <c r="D47" s="29"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="41" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G47" s="45" t="s">
+      <c r="G47" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="H47" s="45" t="s">
+      <c r="H47" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="I47" s="45" t="s">
+      <c r="I47" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="J47" s="44"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="31"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="30"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B48" s="28">
+      <c r="B48" s="27">
         <v>3</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="42" t="str">
+      <c r="D48" s="29"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="41" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G48" s="45" t="s">
+      <c r="G48" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="H48" s="45" t="s">
+      <c r="H48" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="I48" s="45" t="s">
+      <c r="I48" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="J48" s="44"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="31"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="30"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B49" s="28">
+      <c r="B49" s="27">
         <v>4</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="42" t="str">
+      <c r="D49" s="29"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="41" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G49" s="45" t="s">
+      <c r="G49" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="H49" s="45" t="s">
+      <c r="H49" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="I49" s="45" t="s">
+      <c r="I49" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="J49" s="44"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="31"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="30"/>
     </row>
     <row r="50" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="28">
+      <c r="B50" s="27">
         <v>5</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="42" t="str">
+      <c r="D50" s="29"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="41" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G50" s="45" t="s">
+      <c r="G50" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="H50" s="43" t="s">
+      <c r="H50" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="I50" s="45" t="s">
+      <c r="I50" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="J50" s="44"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="31"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="30"/>
     </row>
     <row r="51" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="28">
+      <c r="B51" s="27">
         <v>6</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="42" t="str">
+      <c r="D51" s="29"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="41" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G51" s="45" t="s">
+      <c r="G51" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="H51" s="43" t="s">
+      <c r="H51" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="I51" s="45" t="s">
+      <c r="I51" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="J51" s="44"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="31"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="30"/>
     </row>
     <row r="52" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B52" s="28">
+      <c r="B52" s="27">
         <v>7</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="42" t="str">
+      <c r="D52" s="29"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="41" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G52" s="45" t="s">
+      <c r="G52" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="H52" s="43" t="s">
+      <c r="H52" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="I52" s="45" t="s">
+      <c r="I52" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="J52" s="44"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="31"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="30"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B53" s="28">
+      <c r="B53" s="27">
         <v>8</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="D53" s="30"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="42" t="str">
+      <c r="D53" s="29"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="41" t="str">
         <f t="shared" si="0"/>
         <v></v>
       </c>
-      <c r="G53" s="45" t="s">
+      <c r="G53" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="H53" s="45" t="s">
+      <c r="H53" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="I53" s="45" t="s">
+      <c r="I53" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="J53" s="29"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="31"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="30"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B54" s="28"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="31"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="30"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="31"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="30"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B56" s="28">
+      <c r="B56" s="27">
         <v>1</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="D56" s="30"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="42" t="str">
+      <c r="D56" s="29"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="41" t="str">
         <f t="shared" ref="F56:F61" si="1">IF(OR(H56&lt;&gt;"",I56&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G56" s="45" t="s">
+      <c r="G56" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="H56" s="45" t="s">
+      <c r="H56" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="I56" s="45" t="s">
+      <c r="I56" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="J56" s="44"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="31"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="30"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B57" s="28">
+      <c r="B57" s="27">
         <v>2</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="D57" s="30"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="42" t="str">
+      <c r="D57" s="29"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="41" t="str">
         <f t="shared" si="1"/>
         <v></v>
       </c>
-      <c r="G57" s="45" t="s">
+      <c r="G57" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="H57" s="45" t="s">
+      <c r="H57" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="I57" s="45" t="s">
+      <c r="I57" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="J57" s="44"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="31"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="30"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B58" s="28">
+      <c r="B58" s="27">
         <v>3</v>
       </c>
-      <c r="C58" s="46" t="s">
+      <c r="C58" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="D58" s="30"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="42" t="str">
+      <c r="D58" s="29"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="41" t="str">
         <f t="shared" si="1"/>
         <v></v>
       </c>
-      <c r="G58" s="45" t="s">
+      <c r="G58" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="H58" s="45" t="s">
+      <c r="H58" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="I58" s="45" t="s">
+      <c r="I58" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="J58" s="44"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="31"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="30"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B59" s="28">
+      <c r="B59" s="27">
         <v>4</v>
       </c>
-      <c r="C59" s="46" t="s">
+      <c r="C59" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="D59" s="30"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="42" t="str">
+      <c r="D59" s="29"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="41" t="str">
         <f t="shared" si="1"/>
         <v></v>
       </c>
-      <c r="G59" s="45" t="s">
+      <c r="G59" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="H59" s="45" t="s">
+      <c r="H59" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="I59" s="45" t="s">
+      <c r="I59" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="J59" s="44"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="31"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="30"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B60" s="28">
+      <c r="B60" s="27">
         <v>5</v>
       </c>
-      <c r="C60" s="47" t="s">
+      <c r="C60" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="D60" s="30"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="42" t="str">
+      <c r="D60" s="29"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="41" t="str">
         <f t="shared" si="1"/>
         <v></v>
       </c>
-      <c r="G60" s="45" t="s">
+      <c r="G60" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="H60" s="45" t="s">
+      <c r="H60" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="I60" s="45" t="s">
+      <c r="I60" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="J60" s="44"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="31"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="30"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B61" s="28">
+      <c r="B61" s="27">
         <v>6</v>
       </c>
-      <c r="C61" s="46" t="s">
+      <c r="C61" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="D61" s="30"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="42" t="str">
+      <c r="D61" s="29"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="41" t="str">
         <f t="shared" si="1"/>
         <v></v>
       </c>
-      <c r="G61" s="45" t="s">
+      <c r="G61" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H61" s="45" t="s">
+      <c r="H61" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="I61" s="45" t="s">
+      <c r="I61" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="J61" s="44"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="31"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="30"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B62" s="28"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="31"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="30"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="C63" s="41" t="s">
+      <c r="C63" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="31"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="30"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B64" s="28">
+      <c r="B64" s="27">
         <v>1</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="D64" s="30"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="42" t="str">
+      <c r="D64" s="29"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="41" t="str">
         <f t="shared" ref="F64:F71" si="2">IF(OR(H64&lt;&gt;"",I64&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G64" s="45" t="s">
+      <c r="G64" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="H64" s="45" t="s">
+      <c r="H64" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="I64" s="45" t="s">
+      <c r="I64" s="44" t="s">
         <v>231</v>
       </c>
-      <c r="J64" s="44"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="31"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="30"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B65" s="28">
+      <c r="B65" s="27">
         <v>2</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="D65" s="30"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="42" t="str">
+      <c r="D65" s="29"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="41" t="str">
         <f t="shared" si="2"/>
         <v></v>
       </c>
-      <c r="G65" s="45" t="s">
+      <c r="G65" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="H65" s="45" t="s">
+      <c r="H65" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="I65" s="45" t="s">
+      <c r="I65" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="J65" s="44"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="31"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="30"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B66" s="28">
+      <c r="B66" s="27">
         <v>3</v>
       </c>
-      <c r="C66" s="46" t="s">
+      <c r="C66" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="D66" s="30"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="42" t="str">
+      <c r="D66" s="29"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="41" t="str">
         <f t="shared" si="2"/>
         <v></v>
       </c>
-      <c r="G66" s="45" t="s">
+      <c r="G66" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="H66" s="45" t="s">
+      <c r="H66" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="I66" s="45" t="s">
+      <c r="I66" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="J66" s="44"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="31"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="30"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B67" s="28">
+      <c r="B67" s="27">
         <v>4</v>
       </c>
-      <c r="C67" s="46" t="s">
+      <c r="C67" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="D67" s="30"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="42" t="str">
+      <c r="D67" s="29"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="41" t="str">
         <f t="shared" si="2"/>
         <v></v>
       </c>
-      <c r="G67" s="45" t="s">
+      <c r="G67" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="H67" s="45" t="s">
+      <c r="H67" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="I67" s="45" t="s">
+      <c r="I67" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="J67" s="44"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="31"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="30"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B68" s="28">
+      <c r="B68" s="27">
         <v>5</v>
       </c>
-      <c r="C68" s="46" t="s">
+      <c r="C68" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="D68" s="30"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="42" t="str">
+      <c r="D68" s="29"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="41" t="str">
         <f t="shared" si="2"/>
         <v></v>
       </c>
-      <c r="G68" s="45" t="s">
+      <c r="G68" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="H68" s="45" t="s">
+      <c r="H68" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="I68" s="45" t="s">
+      <c r="I68" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="J68" s="44"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="31"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="30"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B69" s="28">
+      <c r="B69" s="27">
         <v>6</v>
       </c>
-      <c r="C69" s="46" t="s">
+      <c r="C69" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="D69" s="30"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="42" t="str">
+      <c r="D69" s="29"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="41" t="str">
         <f t="shared" si="2"/>
         <v></v>
       </c>
-      <c r="G69" s="45" t="s">
+      <c r="G69" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="H69" s="45" t="s">
+      <c r="H69" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="I69" s="45" t="s">
+      <c r="I69" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="J69" s="44"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="31"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="30"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B70" s="28">
+      <c r="B70" s="27">
         <v>7</v>
       </c>
-      <c r="C70" s="46" t="s">
+      <c r="C70" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="D70" s="30"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="42" t="str">
+      <c r="D70" s="29"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="41" t="str">
         <f t="shared" si="2"/>
         <v></v>
       </c>
-      <c r="G70" s="45" t="s">
+      <c r="G70" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="H70" s="45" t="s">
+      <c r="H70" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="I70" s="45" t="s">
+      <c r="I70" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="J70" s="44"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="31"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="30"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B71" s="28">
+      <c r="B71" s="27">
         <v>8</v>
       </c>
-      <c r="C71" s="46" t="s">
+      <c r="C71" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="D71" s="30"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="42" t="str">
+      <c r="D71" s="29"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="41" t="str">
         <f t="shared" si="2"/>
         <v></v>
       </c>
-      <c r="G71" s="48" t="s">
+      <c r="G71" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="H71" s="48" t="s">
+      <c r="H71" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="I71" s="48" t="s">
+      <c r="I71" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="J71" s="44"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="31"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="30"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B72" s="28"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="31"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="30"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="C73" s="41" t="s">
+      <c r="C73" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="31"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="30"/>
     </row>
     <row r="74" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="33">
+      <c r="B74" s="32">
         <v>1</v>
       </c>
-      <c r="C74" s="68" t="s">
+      <c r="C74" s="69" t="s">
         <v>262</v>
       </c>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="69" t="str">
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="70" t="str">
         <f>IF(OR(H74&lt;&gt;"",I74&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G74" s="70" t="s">
+      <c r="G74" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="H74" s="70" t="s">
+      <c r="H74" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="I74" s="70" t="s">
+      <c r="I74" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="J74" s="49"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="21"/>
+      <c r="J74" s="48"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="20"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B75" s="50"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="69"/>
-      <c r="G75" s="70" t="s">
+      <c r="B75" s="49"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="H75" s="70" t="s">
+      <c r="H75" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="I75" s="70" t="s">
+      <c r="I75" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="J75" s="23"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="25"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="24"/>
     </row>
     <row r="76" spans="2:12" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="33">
+      <c r="B76" s="32">
         <v>2</v>
       </c>
-      <c r="C76" s="68" t="s">
+      <c r="C76" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="D76" s="68"/>
-      <c r="E76" s="68"/>
-      <c r="F76" s="69" t="str">
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="70" t="str">
         <f>IF(OR(H76&lt;&gt;"",I76&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G76" s="70" t="s">
+      <c r="G76" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="H76" s="70" t="s">
+      <c r="H76" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="I76" s="70" t="s">
+      <c r="I76" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="J76" s="49"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="21"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="20"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B77" s="50"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="68"/>
-      <c r="F77" s="69"/>
-      <c r="G77" s="70"/>
-      <c r="H77" s="70"/>
-      <c r="I77" s="70"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="25"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="71"/>
+      <c r="H77" s="71"/>
+      <c r="I77" s="71"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="24"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B78" s="28"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="30"/>
-      <c r="L78" s="31"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="30"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B79" s="29"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
-      <c r="L79" s="31"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="30"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="C80" s="41" t="s">
+      <c r="C80" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="31"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="30"/>
     </row>
     <row r="81" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="33">
+      <c r="B81" s="32">
         <v>1</v>
       </c>
-      <c r="C81" s="72" t="s">
+      <c r="C81" s="73" t="s">
         <v>272</v>
       </c>
-      <c r="D81" s="72"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="69" t="str">
+      <c r="D81" s="73"/>
+      <c r="E81" s="73"/>
+      <c r="F81" s="70" t="str">
         <f>IF(OR(H81&lt;&gt;"",I81&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G81" s="71" t="s">
+      <c r="G81" s="72" t="s">
         <v>273</v>
       </c>
-      <c r="H81" s="71" t="s">
+      <c r="H81" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="I81" s="71" t="s">
+      <c r="I81" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="J81" s="49"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="21"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="20"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B82" s="50"/>
-      <c r="C82" s="72"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="72"/>
-      <c r="F82" s="69"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="71"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="25"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="73"/>
+      <c r="E82" s="73"/>
+      <c r="F82" s="70"/>
+      <c r="G82" s="72"/>
+      <c r="H82" s="72"/>
+      <c r="I82" s="72"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="24"/>
     </row>
     <row r="83" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B83" s="28">
+      <c r="B83" s="27">
         <v>2</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="D83" s="30"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="42" t="str">
+      <c r="D83" s="29"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="41" t="str">
         <f>IF(OR(H83&lt;&gt;"",I83&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G83" s="45" t="s">
+      <c r="G83" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="H83" s="45" t="s">
+      <c r="H83" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="I83" s="43" t="s">
+      <c r="I83" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="J83" s="29"/>
-      <c r="K83" s="30"/>
-      <c r="L83" s="31"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="30"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B84" s="28">
+      <c r="B84" s="27">
         <v>3</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="D84" s="30"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="42" t="str">
+      <c r="D84" s="29"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="41" t="str">
         <f>IF(OR(H84&lt;&gt;"",I84&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G84" s="45" t="s">
+      <c r="G84" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="H84" s="45" t="s">
+      <c r="H84" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="I84" s="45" t="s">
+      <c r="I84" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="J84" s="29"/>
-      <c r="K84" s="30"/>
-      <c r="L84" s="31"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="30"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="L85" s="25"/>
+      <c r="L85" s="24"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="21"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="20"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B87" s="22"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -4105,7 +4135,7 @@
       <c r="L87" s="7"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B88" s="22"/>
+      <c r="B88" s="21"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -4118,7 +4148,7 @@
       <c r="L88" s="7"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B89" s="22"/>
+      <c r="B89" s="21"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
@@ -4131,7 +4161,7 @@
       <c r="L89" s="7"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B90" s="22"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -4144,25 +4174,25 @@
       <c r="L90" s="7"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B91" s="23"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="25"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="24"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B93" s="52" t="s">
+      <c r="B93" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="52"/>
-      <c r="D93" s="52"/>
-      <c r="E93" s="52"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="55"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B94" s="3"/>
@@ -4177,18 +4207,18 @@
       <c r="C96" s="3"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B98" s="52" t="s">
+      <c r="B98" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="52"/>
-      <c r="D98" s="52"/>
-      <c r="E98" s="52"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="45">

--- a/report/Report-Inspection-Sarana Bantu Pemanduan 1.xlsx
+++ b/report/Report-Inspection-Sarana Bantu Pemanduan 1.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Kapal Tunda" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sarana Bantu Pemanduan'!$A$1:$I$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sarana Bantu Pemanduan'!$A$1:$I$34</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="309">
   <si>
     <t>CHECK LIST VERIFIKASI DOKUMEN SARANA BANTU DAN PRASARANA PEMANDUAN</t>
   </si>
@@ -1110,6 +1110,24 @@
   </si>
   <si>
     <t>${table:komunikasi.keterangan}</t>
+  </si>
+  <si>
+    <t>${nama_kkm}</t>
+  </si>
+  <si>
+    <t>${v01}</t>
+  </si>
+  <si>
+    <t>${tv01}</t>
+  </si>
+  <si>
+    <t>${ta01}</t>
+  </si>
+  <si>
+    <t>${keterangan_kkm}</t>
+  </si>
+  <si>
+    <t>${kkm_jabatan}</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1482,14 +1500,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1502,45 +1562,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1822,10 +1843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49:F49"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1841,15 +1862,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1877,15 +1898,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
@@ -1907,29 +1928,29 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54" t="s">
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="54"/>
+      <c r="H12" s="56"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1939,8 +1960,8 @@
       <c r="F13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
     </row>
     <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
@@ -1961,23 +1982,39 @@
       <c r="F14" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="H14" s="53"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="H14" s="57"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="H15" s="57"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1986,270 +2023,271 @@
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="54" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B19" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C19" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-    </row>
-    <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+    </row>
+    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
-        <v>1</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
+        <v>3</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
         <v>4</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E24" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="14">
+    <row r="25" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="14">
         <v>5</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E25" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
         <v>6</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E26" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="14">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="14">
         <v>7</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E27" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
         <v>8</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E28" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="14">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="14">
         <v>9</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
         <v>10</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E30" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="14">
+    <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="14">
         <v>11</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B31" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C31" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D31" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E31" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+    <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
         <v>12</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B32" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C32" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="14">
+    <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="14">
         <v>13</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B33" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C33" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E33" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
@@ -2266,162 +2304,160 @@
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="55" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="54" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B44" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C44" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="54" t="s">
+      <c r="D44" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54" t="s">
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="4" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="56"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="54"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="17" t="s">
+      <c r="G45" s="56"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B46" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C46" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D46" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E46" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F46" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G46" s="17" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="17" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B50" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C50" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D50" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E50" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F50" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="G50" s="17" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="18" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="20"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="21"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="7"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="20"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="21"/>
@@ -2451,23 +2487,28 @@
       <c r="G55" s="7"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="22"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="24"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="55" t="s">
+      <c r="A56" s="21"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="24"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="55"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+      <c r="B59" s="54"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
@@ -2478,29 +2519,25 @@
       <c r="B61" s="3"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="56" t="s">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="56"/>
+      <c r="B64" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:G44"/>
+  <mergeCells count="20">
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A12:A13"/>
@@ -2508,6 +2545,15 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:G45"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="80" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2531,20 +2577,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -2582,18 +2628,18 @@
       <c r="B8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" s="27" t="s">
@@ -2740,18 +2786,18 @@
       <c r="B18" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="28" t="s">
@@ -2829,13 +2875,13 @@
       <c r="B23" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
       <c r="H23" s="33" t="s">
         <v>119</v>
       </c>
@@ -2846,11 +2892,11 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B24" s="22"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
       <c r="H24" s="34"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
@@ -2866,118 +2912,118 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54" t="s">
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="60" t="s">
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54" t="s">
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="60" t="s">
+      <c r="G28" s="56"/>
+      <c r="H28" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
     </row>
     <row r="30" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="35">
         <v>1</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="62" t="s">
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62" t="s">
+      <c r="G30" s="69"/>
+      <c r="H30" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="I30" s="62"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
     </row>
     <row r="31" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="35">
         <v>2</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="62" t="s">
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62" t="s">
+      <c r="G31" s="69"/>
+      <c r="H31" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="I31" s="62"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
     </row>
     <row r="32" spans="1:12" ht="71" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="35">
         <v>3</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="65" t="s">
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65" t="s">
+      <c r="G32" s="64"/>
+      <c r="H32" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="65"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
@@ -3889,22 +3935,22 @@
       <c r="B74" s="32">
         <v>1</v>
       </c>
-      <c r="C74" s="69" t="s">
+      <c r="C74" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="D74" s="69"/>
-      <c r="E74" s="69"/>
-      <c r="F74" s="70" t="str">
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="59" t="str">
         <f>IF(OR(H74&lt;&gt;"",I74&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G74" s="71" t="s">
+      <c r="G74" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="H74" s="71" t="s">
+      <c r="H74" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="I74" s="71" t="s">
+      <c r="I74" s="62" t="s">
         <v>265</v>
       </c>
       <c r="J74" s="48"/>
@@ -3913,17 +3959,17 @@
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B75" s="49"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="71" t="s">
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="H75" s="71" t="s">
+      <c r="H75" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="I75" s="71" t="s">
+      <c r="I75" s="62" t="s">
         <v>265</v>
       </c>
       <c r="J75" s="22"/>
@@ -3934,22 +3980,22 @@
       <c r="B76" s="32">
         <v>2</v>
       </c>
-      <c r="C76" s="69" t="s">
+      <c r="C76" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="D76" s="69"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="70" t="str">
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="59" t="str">
         <f>IF(OR(H76&lt;&gt;"",I76&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G76" s="71" t="s">
+      <c r="G76" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="H76" s="71" t="s">
+      <c r="H76" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="I76" s="71" t="s">
+      <c r="I76" s="62" t="s">
         <v>269</v>
       </c>
       <c r="J76" s="48"/>
@@ -3958,13 +4004,13 @@
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B77" s="49"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="71"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
       <c r="J77" s="22"/>
       <c r="K77" s="23"/>
       <c r="L77" s="24"/>
@@ -4016,22 +4062,22 @@
       <c r="B81" s="32">
         <v>1</v>
       </c>
-      <c r="C81" s="73" t="s">
+      <c r="C81" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="D81" s="73"/>
-      <c r="E81" s="73"/>
-      <c r="F81" s="70" t="str">
+      <c r="D81" s="58"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="59" t="str">
         <f>IF(OR(H81&lt;&gt;"",I81&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G81" s="72" t="s">
+      <c r="G81" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="H81" s="72" t="s">
+      <c r="H81" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="I81" s="72" t="s">
+      <c r="I81" s="60" t="s">
         <v>275</v>
       </c>
       <c r="J81" s="48"/>
@@ -4040,13 +4086,13 @@
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B82" s="49"/>
-      <c r="C82" s="73"/>
-      <c r="D82" s="73"/>
-      <c r="E82" s="73"/>
-      <c r="F82" s="70"/>
-      <c r="G82" s="72"/>
-      <c r="H82" s="72"/>
-      <c r="I82" s="72"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="60"/>
+      <c r="I82" s="60"/>
       <c r="J82" s="22"/>
       <c r="K82" s="23"/>
       <c r="L82" s="24"/>
@@ -4187,12 +4233,12 @@
       <c r="L91" s="24"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B93" s="55" t="s">
+      <c r="B93" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="55"/>
-      <c r="D93" s="55"/>
-      <c r="E93" s="55"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B94" s="3"/>
@@ -4213,32 +4259,33 @@
       <c r="E97" s="23"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B98" s="55" t="s">
+      <c r="B98" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="55"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="C81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="C76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="C74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="C23:G24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:E29"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:L29"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="H28:I29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:L31"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="H32:I32"/>
@@ -4249,24 +4296,23 @@
     <mergeCell ref="J36:L38"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="C23:G24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:E29"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:L29"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="H28:I29"/>
+    <mergeCell ref="C74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="C76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="C81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
   </mergeCells>
   <pageMargins left="0.37013888888888902" right="0.25972222222222202" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/report/Report-Inspection-Sarana Bantu Pemanduan 1.xlsx
+++ b/report/Report-Inspection-Sarana Bantu Pemanduan 1.xlsx
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t>${table:operator.nama}</t>
-  </si>
-  <si>
-    <t>${table:operator.jabatan}</t>
   </si>
   <si>
     <t>B. DOKUMEN PERALATAN KOMUNIKASI</t>
@@ -1129,12 +1126,15 @@
   <si>
     <t>${kkm_jabatan}</t>
   </si>
+  <si>
+    <t>Radio Operator</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1217,6 +1217,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1409,7 +1415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1500,56 +1506,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1563,6 +1530,46 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1845,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1862,15 +1869,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1878,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1886,7 +1893,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1894,19 +1901,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
@@ -1928,29 +1935,29 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56" t="s">
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="56"/>
+      <c r="H12" s="55"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1960,56 +1967,56 @@
       <c r="F13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
     </row>
     <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="D14" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="E14" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="F14" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="G14" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="G14" s="57" t="s">
-        <v>294</v>
-      </c>
-      <c r="H14" s="57"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="C15" s="53" t="s">
-        <v>308</v>
-      </c>
-      <c r="D15" s="51" t="s">
+      <c r="E15" s="52" t="s">
         <v>304</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="F15" s="52" t="s">
         <v>305</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="G15" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="G15" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="H15" s="57"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -2043,21 +2050,21 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="4" t="s">
         <v>12</v>
       </c>
@@ -2316,15 +2323,15 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
@@ -2335,28 +2342,28 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="56" t="s">
+      <c r="D44" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56" t="s">
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="56"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
       <c r="D45" s="4" t="s">
         <v>12</v>
       </c>
@@ -2366,7 +2373,7 @@
       <c r="F45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="56"/>
+      <c r="G45" s="55"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
@@ -2375,25 +2382,25 @@
       <c r="B46" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>76</v>
+      <c r="C46" s="75" t="s">
+        <v>308</v>
       </c>
       <c r="D46" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="F46" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="G46" s="17" t="s">
         <v>297</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2410,7 +2417,7 @@
         <v>18</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>12</v>
@@ -2427,30 +2434,30 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="C50" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="17" t="s">
-        <v>81</v>
-      </c>
       <c r="D50" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="F50" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="G50" s="17" t="s">
         <v>301</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -2505,10 +2512,10 @@
       <c r="G57" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="B59" s="54"/>
+      <c r="A59" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="56"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
@@ -2527,13 +2534,21 @@
       <c r="B63" s="25"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="B64" s="55"/>
+      <c r="A64" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:G45"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
@@ -2546,14 +2561,6 @@
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G12:H13"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:G45"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="80" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2577,27 +2584,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
+      <c r="A1" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -2605,7 +2612,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -2613,47 +2620,47 @@
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
+      <c r="C8" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>89</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>90</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
@@ -2662,17 +2669,17 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>92</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>93</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
@@ -2681,17 +2688,17 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>95</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>96</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
@@ -2700,17 +2707,17 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>98</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>99</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
@@ -2719,17 +2726,17 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B13" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>101</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>102</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
@@ -2738,17 +2745,17 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B14" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>104</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>105</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
@@ -2757,17 +2764,17 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B15" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>107</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>108</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
@@ -2776,35 +2783,35 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
+      <c r="C18" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
@@ -2818,17 +2825,17 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
@@ -2837,17 +2844,17 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B21" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
       <c r="H21" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
@@ -2856,10 +2863,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B22" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -2873,17 +2880,17 @@
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="33" t="s">
         <v>118</v>
-      </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="33" t="s">
-        <v>119</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
@@ -2892,11 +2899,11 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B24" s="22"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
       <c r="H24" s="34"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
@@ -2905,125 +2912,125 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="3" t="s">
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="55" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="56" t="s">
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56" t="s">
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="74" t="s">
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56" t="s">
+      <c r="G28" s="55"/>
+      <c r="H28" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="G28" s="56"/>
-      <c r="H28" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
     </row>
     <row r="30" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="35">
         <v>1</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="69" t="s">
+      <c r="G30" s="63"/>
+      <c r="H30" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="I30" s="69"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
     </row>
     <row r="31" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="35">
         <v>2</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="69" t="s">
+      <c r="G31" s="63"/>
+      <c r="H31" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="I31" s="69"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
     </row>
     <row r="32" spans="1:12" ht="71" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="35">
         <v>3</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64" t="s">
+      <c r="G32" s="66"/>
+      <c r="H32" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="I32" s="64"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
@@ -3040,77 +3047,77 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="3" t="s">
+    </row>
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="69" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="68" t="s">
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="67" t="s">
+      <c r="G37" s="68"/>
+      <c r="H37" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67" t="s">
+      <c r="I37" s="68"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+    </row>
+    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="38" t="s">
         <v>140</v>
-      </c>
-      <c r="I37" s="67"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-    </row>
-    <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="38" t="s">
-        <v>141</v>
       </c>
       <c r="G38" s="38" t="s">
         <v>14</v>
       </c>
       <c r="H38" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="I38" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="I38" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B39" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="40" t="s">
         <v>144</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>145</v>
       </c>
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
@@ -3127,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="30"/>
@@ -3136,13 +3143,13 @@
         <v></v>
       </c>
       <c r="G40" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="H40" s="42" t="s">
+      <c r="I40" s="42" t="s">
         <v>148</v>
-      </c>
-      <c r="I40" s="42" t="s">
-        <v>149</v>
       </c>
       <c r="J40" s="43"/>
       <c r="K40" s="29"/>
@@ -3153,7 +3160,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="30"/>
@@ -3162,13 +3169,13 @@
         <v></v>
       </c>
       <c r="G41" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="H41" s="42" t="s">
+      <c r="I41" s="42" t="s">
         <v>152</v>
-      </c>
-      <c r="I41" s="42" t="s">
-        <v>153</v>
       </c>
       <c r="J41" s="43"/>
       <c r="K41" s="29"/>
@@ -3179,7 +3186,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="30"/>
@@ -3188,13 +3195,13 @@
         <v></v>
       </c>
       <c r="G42" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H42" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="H42" s="42" t="s">
+      <c r="I42" s="42" t="s">
         <v>156</v>
-      </c>
-      <c r="I42" s="42" t="s">
-        <v>157</v>
       </c>
       <c r="J42" s="43"/>
       <c r="K42" s="29"/>
@@ -3205,7 +3212,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="30"/>
@@ -3214,13 +3221,13 @@
         <v></v>
       </c>
       <c r="G43" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="H43" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="H43" s="42" t="s">
+      <c r="I43" s="42" t="s">
         <v>160</v>
-      </c>
-      <c r="I43" s="42" t="s">
-        <v>161</v>
       </c>
       <c r="J43" s="43"/>
       <c r="K43" s="29"/>
@@ -3231,7 +3238,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D44" s="29"/>
       <c r="E44" s="30"/>
@@ -3240,13 +3247,13 @@
         <v></v>
       </c>
       <c r="G44" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="H44" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="H44" s="42" t="s">
+      <c r="I44" s="42" t="s">
         <v>164</v>
-      </c>
-      <c r="I44" s="42" t="s">
-        <v>165</v>
       </c>
       <c r="J44" s="43"/>
       <c r="K44" s="29"/>
@@ -3254,10 +3261,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B45" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="40" t="s">
         <v>166</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>167</v>
       </c>
       <c r="D45" s="29"/>
       <c r="E45" s="29"/>
@@ -3274,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="30"/>
@@ -3283,13 +3290,13 @@
         <v></v>
       </c>
       <c r="G46" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="H46" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="H46" s="42" t="s">
+      <c r="I46" s="44" t="s">
         <v>170</v>
-      </c>
-      <c r="I46" s="44" t="s">
-        <v>171</v>
       </c>
       <c r="J46" s="43"/>
       <c r="K46" s="29"/>
@@ -3300,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="30"/>
@@ -3309,13 +3316,13 @@
         <v></v>
       </c>
       <c r="G47" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="H47" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="H47" s="44" t="s">
+      <c r="I47" s="44" t="s">
         <v>174</v>
-      </c>
-      <c r="I47" s="44" t="s">
-        <v>175</v>
       </c>
       <c r="J47" s="43"/>
       <c r="K47" s="29"/>
@@ -3326,7 +3333,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D48" s="29"/>
       <c r="E48" s="30"/>
@@ -3335,13 +3342,13 @@
         <v></v>
       </c>
       <c r="G48" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="H48" s="44" t="s">
+      <c r="I48" s="44" t="s">
         <v>178</v>
-      </c>
-      <c r="I48" s="44" t="s">
-        <v>179</v>
       </c>
       <c r="J48" s="43"/>
       <c r="K48" s="29"/>
@@ -3352,7 +3359,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D49" s="29"/>
       <c r="E49" s="30"/>
@@ -3361,13 +3368,13 @@
         <v></v>
       </c>
       <c r="G49" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="H49" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="H49" s="44" t="s">
+      <c r="I49" s="44" t="s">
         <v>182</v>
-      </c>
-      <c r="I49" s="44" t="s">
-        <v>183</v>
       </c>
       <c r="J49" s="43"/>
       <c r="K49" s="29"/>
@@ -3378,7 +3385,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="30"/>
@@ -3387,13 +3394,13 @@
         <v></v>
       </c>
       <c r="G50" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="H50" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="H50" s="42" t="s">
+      <c r="I50" s="44" t="s">
         <v>186</v>
-      </c>
-      <c r="I50" s="44" t="s">
-        <v>187</v>
       </c>
       <c r="J50" s="43"/>
       <c r="K50" s="29"/>
@@ -3404,7 +3411,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D51" s="29"/>
       <c r="E51" s="30"/>
@@ -3413,13 +3420,13 @@
         <v></v>
       </c>
       <c r="G51" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="H51" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="H51" s="42" t="s">
+      <c r="I51" s="44" t="s">
         <v>190</v>
-      </c>
-      <c r="I51" s="44" t="s">
-        <v>191</v>
       </c>
       <c r="J51" s="43"/>
       <c r="K51" s="29"/>
@@ -3430,7 +3437,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D52" s="29"/>
       <c r="E52" s="30"/>
@@ -3439,13 +3446,13 @@
         <v></v>
       </c>
       <c r="G52" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="H52" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="H52" s="42" t="s">
+      <c r="I52" s="44" t="s">
         <v>194</v>
-      </c>
-      <c r="I52" s="44" t="s">
-        <v>195</v>
       </c>
       <c r="J52" s="43"/>
       <c r="K52" s="29"/>
@@ -3456,7 +3463,7 @@
         <v>8</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="30"/>
@@ -3465,13 +3472,13 @@
         <v></v>
       </c>
       <c r="G53" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="H53" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="H53" s="44" t="s">
+      <c r="I53" s="44" t="s">
         <v>198</v>
-      </c>
-      <c r="I53" s="44" t="s">
-        <v>199</v>
       </c>
       <c r="J53" s="28"/>
       <c r="K53" s="29"/>
@@ -3492,10 +3499,10 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B55" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" s="40" t="s">
         <v>200</v>
-      </c>
-      <c r="C55" s="40" t="s">
-        <v>201</v>
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
@@ -3512,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D56" s="29"/>
       <c r="E56" s="30"/>
@@ -3521,13 +3528,13 @@
         <v></v>
       </c>
       <c r="G56" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="H56" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="H56" s="44" t="s">
+      <c r="I56" s="44" t="s">
         <v>204</v>
-      </c>
-      <c r="I56" s="44" t="s">
-        <v>205</v>
       </c>
       <c r="J56" s="43"/>
       <c r="K56" s="29"/>
@@ -3538,7 +3545,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="30"/>
@@ -3547,13 +3554,13 @@
         <v></v>
       </c>
       <c r="G57" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="H57" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="H57" s="44" t="s">
+      <c r="I57" s="44" t="s">
         <v>208</v>
-      </c>
-      <c r="I57" s="44" t="s">
-        <v>209</v>
       </c>
       <c r="J57" s="43"/>
       <c r="K57" s="29"/>
@@ -3564,7 +3571,7 @@
         <v>3</v>
       </c>
       <c r="C58" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D58" s="29"/>
       <c r="E58" s="30"/>
@@ -3573,13 +3580,13 @@
         <v></v>
       </c>
       <c r="G58" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="H58" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="H58" s="44" t="s">
+      <c r="I58" s="44" t="s">
         <v>212</v>
-      </c>
-      <c r="I58" s="44" t="s">
-        <v>213</v>
       </c>
       <c r="J58" s="43"/>
       <c r="K58" s="29"/>
@@ -3590,7 +3597,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D59" s="29"/>
       <c r="E59" s="30"/>
@@ -3599,13 +3606,13 @@
         <v></v>
       </c>
       <c r="G59" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H59" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="H59" s="44" t="s">
+      <c r="I59" s="44" t="s">
         <v>216</v>
-      </c>
-      <c r="I59" s="44" t="s">
-        <v>217</v>
       </c>
       <c r="J59" s="43"/>
       <c r="K59" s="29"/>
@@ -3616,7 +3623,7 @@
         <v>5</v>
       </c>
       <c r="C60" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D60" s="29"/>
       <c r="E60" s="30"/>
@@ -3625,13 +3632,13 @@
         <v></v>
       </c>
       <c r="G60" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="H60" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="H60" s="44" t="s">
+      <c r="I60" s="44" t="s">
         <v>220</v>
-      </c>
-      <c r="I60" s="44" t="s">
-        <v>221</v>
       </c>
       <c r="J60" s="43"/>
       <c r="K60" s="29"/>
@@ -3642,7 +3649,7 @@
         <v>6</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D61" s="29"/>
       <c r="E61" s="30"/>
@@ -3651,13 +3658,13 @@
         <v></v>
       </c>
       <c r="G61" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="H61" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="H61" s="44" t="s">
+      <c r="I61" s="44" t="s">
         <v>224</v>
-      </c>
-      <c r="I61" s="44" t="s">
-        <v>225</v>
       </c>
       <c r="J61" s="43"/>
       <c r="K61" s="29"/>
@@ -3678,10 +3685,10 @@
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B63" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C63" s="40" t="s">
         <v>226</v>
-      </c>
-      <c r="C63" s="40" t="s">
-        <v>227</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="29"/>
@@ -3698,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="30"/>
@@ -3707,13 +3714,13 @@
         <v></v>
       </c>
       <c r="G64" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="H64" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="H64" s="44" t="s">
+      <c r="I64" s="44" t="s">
         <v>230</v>
-      </c>
-      <c r="I64" s="44" t="s">
-        <v>231</v>
       </c>
       <c r="J64" s="43"/>
       <c r="K64" s="29"/>
@@ -3724,7 +3731,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D65" s="29"/>
       <c r="E65" s="30"/>
@@ -3733,13 +3740,13 @@
         <v></v>
       </c>
       <c r="G65" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="H65" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="H65" s="44" t="s">
+      <c r="I65" s="44" t="s">
         <v>234</v>
-      </c>
-      <c r="I65" s="44" t="s">
-        <v>235</v>
       </c>
       <c r="J65" s="43"/>
       <c r="K65" s="29"/>
@@ -3750,7 +3757,7 @@
         <v>3</v>
       </c>
       <c r="C66" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="30"/>
@@ -3759,13 +3766,13 @@
         <v></v>
       </c>
       <c r="G66" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="H66" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="H66" s="44" t="s">
+      <c r="I66" s="44" t="s">
         <v>238</v>
-      </c>
-      <c r="I66" s="44" t="s">
-        <v>239</v>
       </c>
       <c r="J66" s="43"/>
       <c r="K66" s="29"/>
@@ -3776,7 +3783,7 @@
         <v>4</v>
       </c>
       <c r="C67" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D67" s="29"/>
       <c r="E67" s="30"/>
@@ -3785,13 +3792,13 @@
         <v></v>
       </c>
       <c r="G67" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="H67" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="H67" s="44" t="s">
+      <c r="I67" s="44" t="s">
         <v>242</v>
-      </c>
-      <c r="I67" s="44" t="s">
-        <v>243</v>
       </c>
       <c r="J67" s="43"/>
       <c r="K67" s="29"/>
@@ -3802,7 +3809,7 @@
         <v>5</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D68" s="29"/>
       <c r="E68" s="30"/>
@@ -3811,13 +3818,13 @@
         <v></v>
       </c>
       <c r="G68" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="H68" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="H68" s="44" t="s">
+      <c r="I68" s="44" t="s">
         <v>246</v>
-      </c>
-      <c r="I68" s="44" t="s">
-        <v>247</v>
       </c>
       <c r="J68" s="43"/>
       <c r="K68" s="29"/>
@@ -3828,7 +3835,7 @@
         <v>6</v>
       </c>
       <c r="C69" s="45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D69" s="29"/>
       <c r="E69" s="30"/>
@@ -3837,13 +3844,13 @@
         <v></v>
       </c>
       <c r="G69" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="H69" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="H69" s="44" t="s">
+      <c r="I69" s="44" t="s">
         <v>250</v>
-      </c>
-      <c r="I69" s="44" t="s">
-        <v>251</v>
       </c>
       <c r="J69" s="43"/>
       <c r="K69" s="29"/>
@@ -3854,7 +3861,7 @@
         <v>7</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="30"/>
@@ -3863,13 +3870,13 @@
         <v></v>
       </c>
       <c r="G70" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="H70" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="H70" s="44" t="s">
+      <c r="I70" s="44" t="s">
         <v>254</v>
-      </c>
-      <c r="I70" s="44" t="s">
-        <v>255</v>
       </c>
       <c r="J70" s="43"/>
       <c r="K70" s="29"/>
@@ -3880,7 +3887,7 @@
         <v>8</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D71" s="29"/>
       <c r="E71" s="30"/>
@@ -3889,13 +3896,13 @@
         <v></v>
       </c>
       <c r="G71" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="H71" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="H71" s="47" t="s">
+      <c r="I71" s="47" t="s">
         <v>258</v>
-      </c>
-      <c r="I71" s="47" t="s">
-        <v>259</v>
       </c>
       <c r="J71" s="43"/>
       <c r="K71" s="29"/>
@@ -3916,10 +3923,10 @@
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B73" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="C73" s="40" t="s">
         <v>260</v>
-      </c>
-      <c r="C73" s="40" t="s">
-        <v>261</v>
       </c>
       <c r="D73" s="29"/>
       <c r="E73" s="29"/>
@@ -3935,23 +3942,23 @@
       <c r="B74" s="32">
         <v>1</v>
       </c>
-      <c r="C74" s="61" t="s">
-        <v>262</v>
-      </c>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="59" t="str">
+      <c r="C74" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="71" t="str">
         <f>IF(OR(H74&lt;&gt;"",I74&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G74" s="62" t="s">
+      <c r="G74" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="H74" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="H74" s="62" t="s">
+      <c r="I74" s="72" t="s">
         <v>264</v>
-      </c>
-      <c r="I74" s="62" t="s">
-        <v>265</v>
       </c>
       <c r="J74" s="48"/>
       <c r="K74" s="19"/>
@@ -3959,18 +3966,18 @@
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B75" s="49"/>
-      <c r="C75" s="61"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="62" t="s">
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="H75" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="H75" s="62" t="s">
+      <c r="I75" s="72" t="s">
         <v>264</v>
-      </c>
-      <c r="I75" s="62" t="s">
-        <v>265</v>
       </c>
       <c r="J75" s="22"/>
       <c r="K75" s="23"/>
@@ -3980,23 +3987,23 @@
       <c r="B76" s="32">
         <v>2</v>
       </c>
-      <c r="C76" s="61" t="s">
-        <v>266</v>
-      </c>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="59" t="str">
+      <c r="C76" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="71" t="str">
         <f>IF(OR(H76&lt;&gt;"",I76&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G76" s="62" t="s">
+      <c r="G76" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="H76" s="72" t="s">
         <v>267</v>
       </c>
-      <c r="H76" s="62" t="s">
+      <c r="I76" s="72" t="s">
         <v>268</v>
-      </c>
-      <c r="I76" s="62" t="s">
-        <v>269</v>
       </c>
       <c r="J76" s="48"/>
       <c r="K76" s="19"/>
@@ -4004,13 +4011,13 @@
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B77" s="49"/>
-      <c r="C77" s="61"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="62"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="62"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="72"/>
       <c r="J77" s="22"/>
       <c r="K77" s="23"/>
       <c r="L77" s="24"/>
@@ -4043,10 +4050,10 @@
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B80" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" s="40" t="s">
         <v>270</v>
-      </c>
-      <c r="C80" s="40" t="s">
-        <v>271</v>
       </c>
       <c r="D80" s="29"/>
       <c r="E80" s="29"/>
@@ -4062,23 +4069,23 @@
       <c r="B81" s="32">
         <v>1</v>
       </c>
-      <c r="C81" s="58" t="s">
-        <v>272</v>
-      </c>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="59" t="str">
+      <c r="C81" s="74" t="s">
+        <v>271</v>
+      </c>
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="71" t="str">
         <f>IF(OR(H81&lt;&gt;"",I81&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G81" s="60" t="s">
+      <c r="G81" s="73" t="s">
+        <v>272</v>
+      </c>
+      <c r="H81" s="73" t="s">
         <v>273</v>
       </c>
-      <c r="H81" s="60" t="s">
+      <c r="I81" s="73" t="s">
         <v>274</v>
-      </c>
-      <c r="I81" s="60" t="s">
-        <v>275</v>
       </c>
       <c r="J81" s="48"/>
       <c r="K81" s="19"/>
@@ -4086,13 +4093,13 @@
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B82" s="49"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="60"/>
-      <c r="H82" s="60"/>
-      <c r="I82" s="60"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="73"/>
+      <c r="H82" s="73"/>
+      <c r="I82" s="73"/>
       <c r="J82" s="22"/>
       <c r="K82" s="23"/>
       <c r="L82" s="24"/>
@@ -4102,7 +4109,7 @@
         <v>2</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="30"/>
@@ -4111,13 +4118,13 @@
         <v></v>
       </c>
       <c r="G83" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="H83" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="H83" s="44" t="s">
+      <c r="I83" s="42" t="s">
         <v>278</v>
-      </c>
-      <c r="I83" s="42" t="s">
-        <v>279</v>
       </c>
       <c r="J83" s="28"/>
       <c r="K83" s="29"/>
@@ -4128,7 +4135,7 @@
         <v>3</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="30"/>
@@ -4137,13 +4144,13 @@
         <v></v>
       </c>
       <c r="G84" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="H84" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="H84" s="44" t="s">
+      <c r="I84" s="44" t="s">
         <v>282</v>
-      </c>
-      <c r="I84" s="44" t="s">
-        <v>283</v>
       </c>
       <c r="J84" s="28"/>
       <c r="K84" s="29"/>
@@ -4154,7 +4161,7 @@
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B86" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
@@ -4233,12 +4240,12 @@
       <c r="L91" s="24"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B93" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C93" s="54"/>
-      <c r="D93" s="54"/>
-      <c r="E93" s="54"/>
+      <c r="B93" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" s="56"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B94" s="3"/>
@@ -4259,15 +4266,50 @@
       <c r="E97" s="23"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B98" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="C98" s="54"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="54"/>
+      <c r="B98" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" s="56"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="C81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="C76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="C74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:E38"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:L38"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:L31"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C18:L18"/>
@@ -4278,41 +4320,6 @@
     <mergeCell ref="J27:L29"/>
     <mergeCell ref="F28:G29"/>
     <mergeCell ref="H28:I29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:E38"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:L38"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="C76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="C81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
   </mergeCells>
   <pageMargins left="0.37013888888888902" right="0.25972222222222202" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/report/Report-Inspection-Sarana Bantu Pemanduan 1.xlsx
+++ b/report/Report-Inspection-Sarana Bantu Pemanduan 1.xlsx
@@ -1127,14 +1127,14 @@
     <t>${kkm_jabatan}</t>
   </si>
   <si>
-    <t>Radio Operator</t>
+    <t>${table:operator.jabatan}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1217,12 +1217,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1415,7 +1409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1506,17 +1500,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1530,46 +1563,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1853,7 +1846,7 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1869,15 +1862,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1905,15 +1898,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
@@ -1935,29 +1928,29 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55" t="s">
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="55"/>
+      <c r="H12" s="56"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1967,8 +1960,8 @@
       <c r="F13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
     </row>
     <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
@@ -1989,10 +1982,10 @@
       <c r="F14" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="57" t="s">
         <v>293</v>
       </c>
-      <c r="H14" s="54"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
@@ -2013,10 +2006,10 @@
       <c r="F15" s="52" t="s">
         <v>305</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="57" t="s">
         <v>306</v>
       </c>
-      <c r="H15" s="54"/>
+      <c r="H15" s="57"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -2050,21 +2043,21 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
     </row>
     <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="4" t="s">
         <v>12</v>
       </c>
@@ -2323,15 +2316,15 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
@@ -2342,28 +2335,28 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55" t="s">
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="55"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="4" t="s">
         <v>12</v>
       </c>
@@ -2373,7 +2366,7 @@
       <c r="F45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="55"/>
+      <c r="G45" s="56"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
@@ -2382,7 +2375,7 @@
       <c r="B46" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="17" t="s">
         <v>308</v>
       </c>
       <c r="D46" s="12" t="s">
@@ -2512,10 +2505,10 @@
       <c r="G57" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="B59" s="56"/>
+      <c r="B59" s="54"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
@@ -2534,21 +2527,13 @@
       <c r="B63" s="25"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="57" t="s">
+      <c r="A64" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="57"/>
+      <c r="B64" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:G45"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
@@ -2561,6 +2546,14 @@
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G12:H13"/>
     <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:G45"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="80" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2584,20 +2577,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -2635,18 +2628,18 @@
       <c r="B8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" s="27" t="s">
@@ -2793,18 +2786,18 @@
       <c r="B18" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="28" t="s">
@@ -2882,13 +2875,13 @@
       <c r="B23" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
       <c r="H23" s="33" t="s">
         <v>118</v>
       </c>
@@ -2899,11 +2892,11 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B24" s="22"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
       <c r="H24" s="34"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
@@ -2919,118 +2912,118 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55" t="s">
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="61" t="s">
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55" t="s">
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="61" t="s">
+      <c r="G28" s="56"/>
+      <c r="H28" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
     </row>
     <row r="30" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="35">
         <v>1</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="63" t="s">
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63" t="s">
+      <c r="G30" s="69"/>
+      <c r="H30" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="I30" s="63"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
     </row>
     <row r="31" spans="1:12" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="35">
         <v>2</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="63" t="s">
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63" t="s">
+      <c r="G31" s="69"/>
+      <c r="H31" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="I31" s="63"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
     </row>
     <row r="32" spans="1:12" ht="71" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="35">
         <v>3</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="66" t="s">
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66" t="s">
+      <c r="G32" s="64"/>
+      <c r="H32" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="I32" s="66"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
@@ -3054,48 +3047,48 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="68" t="s">
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="69" t="s">
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="68" t="s">
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68" t="s">
+      <c r="G37" s="67"/>
+      <c r="H37" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="I37" s="68"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
     </row>
     <row r="38" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
       <c r="F38" s="38" t="s">
         <v>140</v>
       </c>
@@ -3108,9 +3101,9 @@
       <c r="I38" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B39" s="39" t="s">
@@ -3942,22 +3935,22 @@
       <c r="B74" s="32">
         <v>1</v>
       </c>
-      <c r="C74" s="70" t="s">
+      <c r="C74" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="71" t="str">
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="59" t="str">
         <f>IF(OR(H74&lt;&gt;"",I74&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G74" s="72" t="s">
+      <c r="G74" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="H74" s="72" t="s">
+      <c r="H74" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="I74" s="72" t="s">
+      <c r="I74" s="62" t="s">
         <v>264</v>
       </c>
       <c r="J74" s="48"/>
@@ -3966,17 +3959,17 @@
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B75" s="49"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="72" t="s">
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="H75" s="72" t="s">
+      <c r="H75" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="I75" s="72" t="s">
+      <c r="I75" s="62" t="s">
         <v>264</v>
       </c>
       <c r="J75" s="22"/>
@@ -3987,22 +3980,22 @@
       <c r="B76" s="32">
         <v>2</v>
       </c>
-      <c r="C76" s="70" t="s">
+      <c r="C76" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="71" t="str">
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="59" t="str">
         <f>IF(OR(H76&lt;&gt;"",I76&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G76" s="72" t="s">
+      <c r="G76" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="H76" s="72" t="s">
+      <c r="H76" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="I76" s="72" t="s">
+      <c r="I76" s="62" t="s">
         <v>268</v>
       </c>
       <c r="J76" s="48"/>
@@ -4011,13 +4004,13 @@
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B77" s="49"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="72"/>
-      <c r="H77" s="72"/>
-      <c r="I77" s="72"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
       <c r="J77" s="22"/>
       <c r="K77" s="23"/>
       <c r="L77" s="24"/>
@@ -4069,22 +4062,22 @@
       <c r="B81" s="32">
         <v>1</v>
       </c>
-      <c r="C81" s="74" t="s">
+      <c r="C81" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="D81" s="74"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="71" t="str">
+      <c r="D81" s="58"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="59" t="str">
         <f>IF(OR(H81&lt;&gt;"",I81&lt;&gt;""), "", "")</f>
         <v></v>
       </c>
-      <c r="G81" s="73" t="s">
+      <c r="G81" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="H81" s="73" t="s">
+      <c r="H81" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="I81" s="73" t="s">
+      <c r="I81" s="60" t="s">
         <v>274</v>
       </c>
       <c r="J81" s="48"/>
@@ -4093,13 +4086,13 @@
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B82" s="49"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="74"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="73"/>
-      <c r="H82" s="73"/>
-      <c r="I82" s="73"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="60"/>
+      <c r="I82" s="60"/>
       <c r="J82" s="22"/>
       <c r="K82" s="23"/>
       <c r="L82" s="24"/>
@@ -4240,12 +4233,12 @@
       <c r="L91" s="24"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B93" s="56" t="s">
+      <c r="B93" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C93" s="56"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B94" s="3"/>
@@ -4266,32 +4259,33 @@
       <c r="E97" s="23"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B98" s="56" t="s">
+      <c r="B98" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C98" s="56"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="56"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="C81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="C76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="C74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="C23:G24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:E29"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:L29"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="H28:I29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:L31"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="H32:I32"/>
@@ -4302,24 +4296,23 @@
     <mergeCell ref="J36:L38"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="C23:G24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:E29"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:L29"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="H28:I29"/>
+    <mergeCell ref="C74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="C76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="C81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
   </mergeCells>
   <pageMargins left="0.37013888888888902" right="0.25972222222222202" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
